--- a/Gestar/target/site/Automate/Automation Report 2017-06-30.xlsx
+++ b/Gestar/target/site/Automate/Automation Report 2017-06-30.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="40">
   <si>
     <t>story</t>
   </si>
@@ -57,6 +57,197 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>Then seleccionar lunes de la semana en curso</t>
+  </si>
+  <si>
+    <t>CheckConfigurations.story</t>
+  </si>
+  <si>
+    <t>java.lang.String cannot be cast to org.openqa.selenium.By</t>
+  </si>
+  <si>
+    <t>invalid element state: Element must be user-editable in order to clear it.
+  (Session info: chrome=59.0.3071.115)
+  (Driver info: chromedriver=2.29.461591 (62ebf098771772160f391d75e589dc567915b233),platform=Windows NT 6.3.9600 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 25 milliseconds
+Build info: version: '3.4.0', revision: 'unknown', time: 'unknown'
+System info: host: 'HYARCRESPILLOPC', ip: '192.168.27.1', os.name: 'Windows 8.1', os.arch: 'amd64', os.version: '6.3', java.version: '1.8.0_131'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.29.461591 (62ebf098771772160f391d75e589dc567915b233), userDataDir=C:\Users\RCRESP~1\AppData\Local\Temp\scoped_dir8108_26455}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=59.0.3071.115, platform=WIN8_1, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=true, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, unexpectedAlertBehaviour=}]
+Session ID: 223e432ad5520c5da542d6edeee646fd</t>
+  </si>
+  <si>
+    <t>unexpected alert open: {Alert text : Perderá los cambios realizados}
+  (Session info: chrome=59.0.3071.115)
+  (Driver info: chromedriver=2.29.461591 (62ebf098771772160f391d75e589dc567915b233),platform=Windows NT 6.3.9600 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 6 milliseconds: null
+Build info: version: '3.4.0', revision: 'unknown', time: 'unknown'
+System info: host: 'HYARCRESPILLOPC', ip: '192.168.27.1', os.name: 'Windows 8.1', os.arch: 'amd64', os.version: '6.3', java.version: '1.8.0_131'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.29.461591 (62ebf098771772160f391d75e589dc567915b233), userDataDir=C:\Users\RCRESP~1\AppData\Local\Temp\scoped_dir3216_28154}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=59.0.3071.115, platform=WIN8_1, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=true, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, unexpectedAlertBehaviour=}]
+Session ID: 0ec66d830a4cc200efbb0fa35357c6d5</t>
+  </si>
+  <si>
+    <t>When abrir la carpeta ｟Gestar CRM｠</t>
+  </si>
+  <si>
+    <t>unexpected alert open: {Alert text : Perderá los cambios realizados}
+  (Session info: chrome=59.0.3071.115)
+  (Driver info: chromedriver=2.29.461591 (62ebf098771772160f391d75e589dc567915b233),platform=Windows NT 6.3.9600 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 5 milliseconds: null
+Build info: version: '3.4.0', revision: 'unknown', time: 'unknown'
+System info: host: 'HYARCRESPILLOPC', ip: '192.168.27.1', os.name: 'Windows 8.1', os.arch: 'amd64', os.version: '6.3', java.version: '1.8.0_131'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.29.461591 (62ebf098771772160f391d75e589dc567915b233), userDataDir=C:\Users\RCRESP~1\AppData\Local\Temp\scoped_dir3912_11944}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=59.0.3071.115, platform=WIN8_1, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=true, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, unexpectedAlertBehaviour=}]
+Session ID: 08fcb829f272769e3a87ec6fc8449465</t>
+  </si>
+  <si>
+    <t>unexpected alert open: {Alert text : Perderá los cambios realizados}
+  (Session info: chrome=59.0.3071.115)
+  (Driver info: chromedriver=2.29.461591 (62ebf098771772160f391d75e589dc567915b233),platform=Windows NT 6.3.9600 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 5 milliseconds: null
+Build info: version: '3.4.0', revision: 'unknown', time: 'unknown'
+System info: host: 'HYARCRESPILLOPC', ip: '192.168.27.1', os.name: 'Windows 8.1', os.arch: 'amd64', os.version: '6.3', java.version: '1.8.0_131'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.29.461591 (62ebf098771772160f391d75e589dc567915b233), userDataDir=C:\Users\RCRESP~1\AppData\Local\Temp\scoped_dir7980_27922}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=59.0.3071.115, platform=WIN8_1, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=true, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, unexpectedAlertBehaviour=}]
+Session ID: bb42fd459785c164a45a2980de9dc008</t>
+  </si>
+  <si>
+    <t>no encontro el elemento</t>
+  </si>
+  <si>
+    <t>When abrir la carpeta ｟Planificador｠</t>
+  </si>
+  <si>
+    <t>unexpected alert open: {Alert text : Perderá los cambios realizados}
+  (Session info: chrome=59.0.3071.115)
+  (Driver info: chromedriver=2.29.461591 (62ebf098771772160f391d75e589dc567915b233),platform=Windows NT 6.3.9600 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 5 milliseconds: null
+Build info: version: '3.4.0', revision: 'unknown', time: 'unknown'
+System info: host: 'HYARCRESPILLOPC', ip: '192.168.27.1', os.name: 'Windows 8.1', os.arch: 'amd64', os.version: '6.3', java.version: '1.8.0_131'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.29.461591 (62ebf098771772160f391d75e589dc567915b233), userDataDir=C:\Users\RCRESP~1\AppData\Local\Temp\scoped_dir5716_20348}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=59.0.3071.115, platform=WIN8_1, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=true, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, unexpectedAlertBehaviour=}]
+Session ID: a0658e157f80ea324470a1d3b216d8a6</t>
+  </si>
+  <si>
+    <t>unexpected alert open: {Alert text : Perderá los cambios realizados}
+  (Session info: chrome=59.0.3071.115)
+  (Driver info: chromedriver=2.29.461591 (62ebf098771772160f391d75e589dc567915b233),platform=Windows NT 6.3.9600 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 5 milliseconds: null
+Build info: version: '3.4.0', revision: 'unknown', time: 'unknown'
+System info: host: 'HYARCRESPILLOPC', ip: '192.168.27.1', os.name: 'Windows 8.1', os.arch: 'amd64', os.version: '6.3', java.version: '1.8.0_131'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.29.461591 (62ebf098771772160f391d75e589dc567915b233), userDataDir=C:\Users\RCRESP~1\AppData\Local\Temp\scoped_dir7320_29170}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=59.0.3071.115, platform=WIN8_1, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=true, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, unexpectedAlertBehaviour=}]
+Session ID: b154240fb99bb265c8e204c59d35825c</t>
+  </si>
+  <si>
+    <t>Cannot format given Object as a Date</t>
+  </si>
+  <si>
+    <t>invalid element state: Element must be user-editable in order to clear it.
+  (Session info: chrome=59.0.3071.115)
+  (Driver info: chromedriver=2.29.461591 (62ebf098771772160f391d75e589dc567915b233),platform=Windows NT 6.3.9600 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 50 milliseconds
+Build info: version: '3.4.0', revision: 'unknown', time: 'unknown'
+System info: host: 'HYARCRESPILLOPC', ip: '192.168.27.1', os.name: 'Windows 8.1', os.arch: 'amd64', os.version: '6.3', java.version: '1.8.0_131'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.29.461591 (62ebf098771772160f391d75e589dc567915b233), userDataDir=C:\Users\RCRESP~1\AppData\Local\Temp\scoped_dir2844_1656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=59.0.3071.115, platform=WIN8_1, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=true, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, unexpectedAlertBehaviour=}]
+Session ID: f257bf0f190b0f61eaa07ff62040248f</t>
+  </si>
+  <si>
+    <t>Element "By.xpath: //input[@class='week-picker hasDatepicker']" was not found</t>
+  </si>
+  <si>
+    <t>Element "By.xpath: //select[@id='team']/option[@value='Team Alfonso']" was not found</t>
+  </si>
+  <si>
+    <t>Then seleccionar equipo ｟Team Alfonso｠</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[@class='ui-state-default' and text()=10]"}
+  (Session info: chrome=59.0.3071.115)
+  (Driver info: chromedriver=2.29.461591 (62ebf098771772160f391d75e589dc567915b233),platform=Windows NT 6.3.9600 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 11 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.4.0', revision: 'unknown', time: 'unknown'
+System info: host: 'HYARCRESPILLOPC', ip: '192.168.27.1', os.name: 'Windows 8.1', os.arch: 'amd64', os.version: '6.3', java.version: '1.8.0_131'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.29.461591 (62ebf098771772160f391d75e589dc567915b233), userDataDir=C:\Users\RCRESP~1\AppData\Local\Temp\scoped_dir8752_16590}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=59.0.3071.115, platform=WIN8_1, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=true, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, unexpectedAlertBehaviour=}]
+Session ID: be017f6bd267a137b20ea423fa43bfe3
+*** Element info: {Using=xpath, value=//a[@class='ui-state-default' and text()=10]}</t>
+  </si>
+  <si>
+    <t>unexpected alert open: {Alert text : Perderá los cambios realizados}
+  (Session info: chrome=59.0.3071.115)
+  (Driver info: chromedriver=2.29.461591 (62ebf098771772160f391d75e589dc567915b233),platform=Windows NT 6.3.9600 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 5 milliseconds: null
+Build info: version: '3.4.0', revision: 'unknown', time: 'unknown'
+System info: host: 'HYARCRESPILLOPC', ip: '192.168.27.1', os.name: 'Windows 8.1', os.arch: 'amd64', os.version: '6.3', java.version: '1.8.0_131'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.29.461591 (62ebf098771772160f391d75e589dc567915b233), userDataDir=C:\Users\RCRESP~1\AppData\Local\Temp\scoped_dir5152_19826}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=59.0.3071.115, platform=WIN8_1, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=true, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, unexpectedAlertBehaviour=}]
+Session ID: e50c8e26780e0475e0bfa47bebe5f7e6</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[@class='ui-state-default' and text()='10']/parent::*"}
+  (Session info: chrome=59.0.3071.115)
+  (Driver info: chromedriver=2.29.461591 (62ebf098771772160f391d75e589dc567915b233),platform=Windows NT 6.3.9600 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 24 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.4.0', revision: 'unknown', time: 'unknown'
+System info: host: 'HYARCRESPILLOPC', ip: '192.168.27.1', os.name: 'Windows 8.1', os.arch: 'amd64', os.version: '6.3', java.version: '1.8.0_131'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.29.461591 (62ebf098771772160f391d75e589dc567915b233), userDataDir=C:\Users\RCRESP~1\AppData\Local\Temp\scoped_dir5172_9031}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=59.0.3071.115, platform=WIN8_1, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=true, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, unexpectedAlertBehaviour=}]
+Session ID: 46d66c6a76df7b8009c24201589ee047
+*** Element info: {Using=xpath, value=//a[@class='ui-state-default' and text()='10']/parent::*}</t>
+  </si>
+  <si>
+    <t>element not visible
+  (Session info: chrome=59.0.3071.115)
+  (Driver info: chromedriver=2.29.461591 (62ebf098771772160f391d75e589dc567915b233),platform=Windows NT 6.3.9600 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 19 milliseconds
+Build info: version: '3.4.0', revision: 'unknown', time: 'unknown'
+System info: host: 'HYARCRESPILLOPC', ip: '192.168.27.1', os.name: 'Windows 8.1', os.arch: 'amd64', os.version: '6.3', java.version: '1.8.0_131'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.29.461591 (62ebf098771772160f391d75e589dc567915b233), userDataDir=C:\Users\RCRESP~1\AppData\Local\Temp\scoped_dir9120_27139}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=59.0.3071.115, platform=WIN8_1, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=true, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, unexpectedAlertBehaviour=}]
+Session ID: bc5f30ee07ed5ae4a2eb6fa2d1e2feef</t>
+  </si>
+  <si>
+    <t>unexpected alert open: {Alert text : Perderá los cambios realizados}
+  (Session info: chrome=59.0.3071.115)
+  (Driver info: chromedriver=2.29.461591 (62ebf098771772160f391d75e589dc567915b233),platform=Windows NT 6.3.9600 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 6 milliseconds: null
+Build info: version: '3.4.0', revision: 'unknown', time: 'unknown'
+System info: host: 'HYARCRESPILLOPC', ip: '192.168.27.1', os.name: 'Windows 8.1', os.arch: 'amd64', os.version: '6.3', java.version: '1.8.0_131'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.29.461591 (62ebf098771772160f391d75e589dc567915b233), userDataDir=C:\Users\RCRESP~1\AppData\Local\Temp\scoped_dir6664_24477}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=59.0.3071.115, platform=WIN8_1, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=true, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, unexpectedAlertBehaviour=}]
+Session ID: 425bcd76cf28f90cd3310bae1937d47a</t>
+  </si>
+  <si>
+    <t>For input string: "s_month"</t>
+  </si>
+  <si>
+    <t>unexpected alert open: {Alert text : Perderá los cambios realizados}
+  (Session info: chrome=59.0.3071.115)
+  (Driver info: chromedriver=2.29.461591 (62ebf098771772160f391d75e589dc567915b233),platform=Windows NT 6.3.9600 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 3 milliseconds: null
+Build info: version: '3.4.0', revision: 'unknown', time: 'unknown'
+System info: host: 'HYARCRESPILLOPC', ip: '192.168.27.1', os.name: 'Windows 8.1', os.arch: 'amd64', os.version: '6.3', java.version: '1.8.0_131'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.29.461591 (62ebf098771772160f391d75e589dc567915b233), userDataDir=C:\Users\RCRESP~1\AppData\Local\Temp\scoped_dir8748_5863}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=59.0.3071.115, platform=WIN8_1, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=true, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, unexpectedAlertBehaviour=}]
+Session ID: bd047f36bdcbfec96eb9cf8b00c8f6f5</t>
+  </si>
+  <si>
+    <t>unexpected alert open: {Alert text : Perderá los cambios realizados}
+  (Session info: chrome=59.0.3071.115)
+  (Driver info: chromedriver=2.29.461591 (62ebf098771772160f391d75e589dc567915b233),platform=Windows NT 6.3.9600 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 5 milliseconds: null
+Build info: version: '3.4.0', revision: 'unknown', time: 'unknown'
+System info: host: 'HYARCRESPILLOPC', ip: '192.168.27.1', os.name: 'Windows 8.1', os.arch: 'amd64', os.version: '6.3', java.version: '1.8.0_131'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.29.461591 (62ebf098771772160f391d75e589dc567915b233), userDataDir=C:\Users\RCRESP~1\AppData\Local\Temp\scoped_dir6704_13726}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=59.0.3071.115, platform=WIN8_1, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=true, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, unexpectedAlertBehaviour=}]
+Session ID: a77efe0d99315cd01f0a38fb92e417c4</t>
   </si>
 </sst>
 </file>
@@ -64,7 +255,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="11">
+  <fonts count="65">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -76,6 +267,222 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -170,9 +577,211 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="238">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -353,6 +962,714 @@
         <v>14</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="82"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="86" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="102" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="107" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="106"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="108" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="110" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="112" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="114" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="116" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="119" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="118" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="122" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="124" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="127" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="126" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="128" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="131" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="130" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="132" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="135" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="134"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="136" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="138" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="143" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="142" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="144" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="147" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="146" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="148" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="151" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="150" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="152" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="155" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="154" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="156" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="159" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="158" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="160" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="163" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="162" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="164" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="167" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="166" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="168" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="171" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="170" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="172" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="175" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="174" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="176" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="179" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="178" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="180" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="183" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="182" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="187" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="186" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="188" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="191" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="190" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="192" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="195" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="194" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="196" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="199" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="198" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="200" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="203" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" s="202" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="204" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="207" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="206" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="208" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="211" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="210" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="212" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="215" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" s="214" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="216" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="219" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="218" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="220" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="221" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="223" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="222" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="224" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="225" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="227" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="226" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="228" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="229" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="231" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="230" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="232" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="233" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="235" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="234" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="236" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="237" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Gestar/target/site/Automate/Automation Report 2017-06-30.xlsx
+++ b/Gestar/target/site/Automate/Automation Report 2017-06-30.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="47">
   <si>
     <t>story</t>
   </si>
@@ -249,13 +249,66 @@
 Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.29.461591 (62ebf098771772160f391d75e589dc567915b233), userDataDir=C:\Users\RCRESP~1\AppData\Local\Temp\scoped_dir6704_13726}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=59.0.3071.115, platform=WIN8_1, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=true, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, unexpectedAlertBehaviour=}]
 Session ID: a77efe0d99315cd01f0a38fb92e417c4</t>
   </si>
+  <si>
+    <t>unexpected alert open: {Alert text : Perderá los cambios realizados}
+  (Session info: chrome=59.0.3071.115)
+  (Driver info: chromedriver=2.29.461591 (62ebf098771772160f391d75e589dc567915b233),platform=Windows NT 6.3.9600 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 3 milliseconds: null
+Build info: version: '3.4.0', revision: 'unknown', time: 'unknown'
+System info: host: 'HYARCRESPILLOPC', ip: '192.168.27.1', os.name: 'Windows 8.1', os.arch: 'amd64', os.version: '6.3', java.version: '1.8.0_131'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.29.461591 (62ebf098771772160f391d75e589dc567915b233), userDataDir=C:\Users\RCRESP~1\AppData\Local\Temp\scoped_dir7620_30262}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=59.0.3071.115, platform=WIN8_1, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=true, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, unexpectedAlertBehaviour=}]
+Session ID: 2eb4bc62f157706cfd46b65833ef4847</t>
+  </si>
+  <si>
+    <t>unexpected alert open: {Alert text : Perderá los cambios realizados}
+  (Session info: chrome=59.0.3071.115)
+  (Driver info: chromedriver=2.29.461591 (62ebf098771772160f391d75e589dc567915b233),platform=Windows NT 6.3.9600 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 3 milliseconds: null
+Build info: version: '3.4.0', revision: 'unknown', time: 'unknown'
+System info: host: 'HYARCRESPILLOPC', ip: '192.168.27.1', os.name: 'Windows 8.1', os.arch: 'amd64', os.version: '6.3', java.version: '1.8.0_131'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.29.461591 (62ebf098771772160f391d75e589dc567915b233), userDataDir=C:\Users\RCRESP~1\AppData\Local\Temp\scoped_dir5912_21333}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=59.0.3071.115, platform=WIN8_1, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=true, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, unexpectedAlertBehaviour=}]
+Session ID: 329e1ffe4be064002272d3bca9831bfd</t>
+  </si>
+  <si>
+    <t>unexpected alert open: {Alert text : Perderá los cambios realizados}
+  (Session info: chrome=59.0.3071.115)
+  (Driver info: chromedriver=2.29.461591 (62ebf098771772160f391d75e589dc567915b233),platform=Windows NT 6.3.9600 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 5 milliseconds: null
+Build info: version: '3.4.0', revision: 'unknown', time: 'unknown'
+System info: host: 'HYARCRESPILLOPC', ip: '192.168.27.1', os.name: 'Windows 8.1', os.arch: 'amd64', os.version: '6.3', java.version: '1.8.0_131'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.29.461591 (62ebf098771772160f391d75e589dc567915b233), userDataDir=C:\Users\RCRESP~1\AppData\Local\Temp\scoped_dir8996_12823}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=59.0.3071.115, platform=WIN8_1, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=true, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, unexpectedAlertBehaviour=}]
+Session ID: 1d878979d11645aed02ebcf3759903b9</t>
+  </si>
+  <si>
+    <t>unexpected alert open: {Alert text : Perderá los cambios realizados}
+  (Session info: chrome=59.0.3071.115)
+  (Driver info: chromedriver=2.29.461591 (62ebf098771772160f391d75e589dc567915b233),platform=Windows NT 6.3.9600 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 5 milliseconds: null
+Build info: version: '3.4.0', revision: 'unknown', time: 'unknown'
+System info: host: 'HYARCRESPILLOPC', ip: '192.168.27.1', os.name: 'Windows 8.1', os.arch: 'amd64', os.version: '6.3', java.version: '1.8.0_131'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.29.461591 (62ebf098771772160f391d75e589dc567915b233), userDataDir=C:\Users\RCRESP~1\AppData\Local\Temp\scoped_dir3348_1852}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=59.0.3071.115, platform=WIN8_1, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=true, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, unexpectedAlertBehaviour=}]
+Session ID: 4def2f6311c51cf8f5a97a65c1e313d7</t>
+  </si>
+  <si>
+    <t>AllControlsCheckGestar.story</t>
+  </si>
+  <si>
+    <t>pending step: When me conecto a gestar con el usuario: admin sin pass  a la instancia DESA</t>
+  </si>
+  <si>
+    <t>When me conecto a gestar con el usuario: admin sin pass  a la instancia DESA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="65">
+  <fonts count="72">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -267,6 +320,34 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -577,9 +658,37 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="238">
+  <cellXfs count="266">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -1670,6 +1779,104 @@
         <v>14</v>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" s="238" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="239" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="241" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="240" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="242" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="243" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="245" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="244" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="246" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="247" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="249" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="248" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="250" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="251" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="253" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="252" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="254" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="255" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="257" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="256" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="258" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" s="259" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="261" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70" s="260" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="262" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" s="263" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="265" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" s="264" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
